--- a/装修预算.xlsx
+++ b/装修预算.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="面积" sheetId="1" r:id="rId1"/>
-    <sheet name="半包主材清单" sheetId="2" r:id="rId2"/>
-    <sheet name="半包装修公司提供的主材" sheetId="3" r:id="rId3"/>
-    <sheet name="半包辅材" sheetId="4" r:id="rId4"/>
+    <sheet name="板材选购" sheetId="7" r:id="rId2"/>
+    <sheet name="半包主材清单" sheetId="2" r:id="rId3"/>
+    <sheet name="半包装修公司提供的辅材" sheetId="3" r:id="rId4"/>
     <sheet name="补充" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="124">
   <si>
     <t>房间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -477,12 +477,127 @@
     <t>10、暖气；散热器。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环保等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实木颗粒板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧松板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多层实木板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指接实木板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禾香板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实木颗粒板不够平整，做弧度等造型比较难。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①握钉力较好
+②强度高，稳定性较强，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 现在歪果仁们做衣柜大多还是用的实木颗粒板。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实木颗粒板是把原木打成碎渣后经高温高压加工而成的，中间是木质木片，两边为组织细密的木片经压制成板，可以说实木颗粒板是把原来木材的物理性能都改变了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧松板原名OSB定向结构板，欧松板原料主要是以实木树种为原材料，传说中的零甲醛释放板材是也！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①欧松板硬度大，稳定性很高，不易变形。
+②且握钉力强，有一定的阻燃性。
+③欧松板用的胶是异氰酸酯胶，也是我们常说的MDI环保胶。
+④整体来说都欧松板性价比很高，价格优惠物理性能又好！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多层实木板就是一层一层木板压上去的，用胶水粘在一起就是多层的了！多层实木板是层数越少越好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构稳定性好，不易变形。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①价格相对较高 
+②且多层实木板环保性一般只能达到国标E1，如果对环保系数要求很高的童鞋对于多层实木板就要慎重考虑了哈！但是橱柜水槽下的板子是多用多层实木板的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指接实木板像是由一块一块的木头粘在一起一样。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指接实木板是最接近原木的，环保系数最高，物理性能好，比起原木价格要低很多，且稳定性好。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禾香板其实也是实木颗粒板的一种哦！是以农作物秸秆碎料为主原料，加上MDI胶及功能添加剂经高温高压制作而成，和欧松板一样也是大名鼎鼎的零甲醛释放板材！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①平整光滑，结构均匀对称，板面坚实。
+②尺寸稳定性好，环保。
+③阻燃和耐候性好，防水性能好。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格相对较高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,8 +659,16 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -558,8 +681,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -612,11 +741,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -660,6 +804,18 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -675,6 +831,201 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1609725</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1428749</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10610850" y="771524"/>
+          <a:ext cx="1562100" cy="1400175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1619249</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1457325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10629899" y="2238375"/>
+          <a:ext cx="1552575" cy="1428750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1619250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1562100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10629900" y="3752849"/>
+          <a:ext cx="1552575" cy="1485901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1619250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>619125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10563226" y="5353050"/>
+          <a:ext cx="1619249" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1600200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1409701</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10582275" y="6048375"/>
+          <a:ext cx="1581150" cy="1343026"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -943,7 +1294,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1053,6 +1404,142 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.25" style="19" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="19" customWidth="1"/>
+    <col min="4" max="5" width="24" style="19" customWidth="1"/>
+    <col min="6" max="7" width="9" style="19"/>
+    <col min="8" max="8" width="21.5" style="19" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="115.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="1:8" ht="115.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" spans="1:8" ht="132" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" spans="1:8" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+    </row>
+    <row r="6" spans="1:8" ht="115.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1060,7 +1547,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -1486,12 +1973,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1657,27 +2144,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/装修预算.xlsx
+++ b/装修预算.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="面积" sheetId="1" r:id="rId1"/>
     <sheet name="板材选购" sheetId="7" r:id="rId2"/>
-    <sheet name="半包主材清单" sheetId="2" r:id="rId3"/>
-    <sheet name="半包装修公司提供的辅材" sheetId="3" r:id="rId4"/>
-    <sheet name="补充" sheetId="6" r:id="rId5"/>
+    <sheet name="乳胶漆" sheetId="8" r:id="rId3"/>
+    <sheet name="半包主材清单" sheetId="2" r:id="rId4"/>
+    <sheet name="半包装修公司提供的辅材" sheetId="3" r:id="rId5"/>
+    <sheet name="补充" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="137">
   <si>
     <t>房间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -592,12 +593,64 @@
     <t>价格相对较高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>水泥漆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乳胶漆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粒子较粗，带些粗旷感，视觉效果较为粗糙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价位相对较低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某些喜欢Loft公寓风颓废气息的家居空间feel的朋友会使用水泥漆来实现略带粗糙感的墙面效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原料等级较高，因此质地较细，粉刷在墙面能呈现细致视觉效果，加上漆完后表面会形成石膏状，附着力较好，不容易掉漆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意事项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>色浆选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水性色浆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乳胶漆使用量计算公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数×房屋实际面积÷每桶乳胶漆的使用面积÷每桶乳胶漆的容量=乳胶漆的桶数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数是乳胶漆行业长期以来约定俗成的一个名词，它的取值范围大概是在2.2-2.5之间。一般情况下家装中的系数会是2.2。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值得注意的是，相同房屋面积的情况下，房间数越多，系数就越大。例如：同为90㎡的房子，如果是2室2厅的房子则系数就用2.2，若为3室2厅的房子则系数就用2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -666,6 +719,15 @@
       <name val="Microsoft YaHei UI"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -760,7 +822,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -815,6 +877,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1406,8 +1474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1539,6 +1607,102 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="23"/>
+    <col min="2" max="2" width="23.625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="17.875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="23.875" style="23" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -1973,7 +2137,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
@@ -2144,7 +2308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B12"/>
   <sheetViews>

--- a/装修预算.xlsx
+++ b/装修预算.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="面积" sheetId="1" r:id="rId1"/>
     <sheet name="板材选购" sheetId="7" r:id="rId2"/>
     <sheet name="乳胶漆" sheetId="8" r:id="rId3"/>
     <sheet name="半包主材清单" sheetId="2" r:id="rId4"/>
-    <sheet name="半包装修公司提供的辅材" sheetId="3" r:id="rId5"/>
-    <sheet name="补充" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId5"/>
+    <sheet name="半包装修公司提供的辅材" sheetId="3" r:id="rId6"/>
+    <sheet name="补充" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="172">
   <si>
     <t>房间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -645,12 +646,152 @@
     <t>值得注意的是，相同房屋面积的情况下，房间数越多，系数就越大。例如：同为90㎡的房子，如果是2室2厅的房子则系数就用2.2，若为3室2厅的房子则系数就用2.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>书柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>榻榻米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电脑桌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橱柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灶具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台面盆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干湿分离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花洒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吊顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墙砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吊顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墙砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫浴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卧室门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厕所门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗面盆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风管机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水电改造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗帘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墙纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -723,6 +864,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -822,7 +972,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -884,6 +1034,7 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1610,7 +1761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -1710,8 +1861,8 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -1931,7 +2082,7 @@
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
     </row>
-    <row r="21" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
@@ -1941,7 +2092,7 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>21</v>
       </c>
@@ -1951,17 +2102,19 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="9"/>
+      <c r="B23" s="9">
+        <v>1</v>
+      </c>
       <c r="C23" s="9"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>23</v>
       </c>
@@ -1971,7 +2124,7 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>24</v>
       </c>
@@ -1981,7 +2134,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>25</v>
       </c>
@@ -2130,6 +2283,216 @@
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10">
+        <v>4499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>154</v>
+      </c>
+      <c r="D26">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>168</v>
+      </c>
+      <c r="E30">
+        <f>SUM(D8,D17,D26)</f>
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>169</v>
+      </c>
+      <c r="D31">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>171</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2137,7 +2500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
@@ -2308,7 +2671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B12"/>
   <sheetViews>

--- a/装修预算.xlsx
+++ b/装修预算.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="180">
   <si>
     <t>房间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -786,12 +786,37 @@
     <t>墙纸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>地板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨西哥湾</t>
+  </si>
+  <si>
+    <t>咖</t>
+  </si>
+  <si>
+    <t>黄</t>
+  </si>
+  <si>
+    <t>童话镇</t>
+  </si>
+  <si>
+    <t>月牙泉</t>
+  </si>
+  <si>
+    <t>红咖</t>
+  </si>
+  <si>
+    <t>利兹蔷薇</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -877,6 +902,21 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0075C1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -969,10 +1009,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1035,9 +1076,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2293,10 +2337,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2489,14 +2533,56 @@
         <v>170</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>171</v>
       </c>
     </row>
+    <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>172</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B35" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B36" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B37" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>178</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C34" r:id="rId1" location="sub2" display="http://www.powerdekor.com.cn/powerDekor/findDesign.action?pTypeId=402880e85726b850015726c25e310004&amp;typePicture=uploadImgs/menuSecondImg/2016/10/9/1475984523330.jpg&amp;typename=%E8%89%B2%E5%BD%A9&amp;sign=4 - sub2"/>
+    <hyperlink ref="C35" r:id="rId2" location="sub2" display="http://www.powerdekor.com.cn/powerDekor/findDesign.action?pTypeId=402880e85726b850015726c25e310004&amp;typePicture=uploadImgs/menuSecondImg/2016/10/9/1475984523330.jpg&amp;typename=%E8%89%B2%E5%BD%A9&amp;sign=4 - sub2"/>
+    <hyperlink ref="C36" r:id="rId3" location="sub2" display="http://www.powerdekor.com.cn/powerDekor/findDesign.action?pTypeId=402880e85726b850015726c25e310004&amp;typePicture=uploadImgs/menuSecondImg/2016/10/9/1475984523330.jpg&amp;typename=%E8%89%B2%E5%BD%A9&amp;sign=4 - sub2"/>
+    <hyperlink ref="C37" r:id="rId4" location="sub2" display="http://www.powerdekor.com.cn/powerDekor/findDesign.action?pTypeId=402880e85726b850015726c25e310004&amp;typePicture=uploadImgs/menuSecondImg/2016/10/9/1475984523330.jpg&amp;typename=%E8%89%B2%E5%BD%A9&amp;sign=4 - sub2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/装修预算.xlsx
+++ b/装修预算.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="191">
   <si>
     <t>房间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -810,6 +810,50 @@
   </si>
   <si>
     <t>利兹蔷薇</t>
+  </si>
+  <si>
+    <t>衣柜橱柜烟机灶具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫浴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓷砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吊顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2337,13 +2381,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
@@ -2393,9 +2440,6 @@
       <c r="A8" t="s">
         <v>160</v>
       </c>
-      <c r="D8">
-        <v>30000</v>
-      </c>
     </row>
     <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
@@ -2505,6 +2549,9 @@
       <c r="A28" t="s">
         <v>163</v>
       </c>
+      <c r="D28">
+        <v>7000</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -2517,7 +2564,7 @@
       </c>
       <c r="E30">
         <f>SUM(D8,D17,D26)</f>
-        <v>52000</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -2525,7 +2572,7 @@
         <v>169</v>
       </c>
       <c r="D31">
-        <v>4000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -2533,12 +2580,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>172</v>
       </c>
@@ -2548,8 +2595,11 @@
       <c r="C34" s="27" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D34">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B35" s="26" t="s">
         <v>176</v>
       </c>
@@ -2557,7 +2607,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B36" s="26" t="s">
         <v>177</v>
       </c>
@@ -2565,12 +2615,83 @@
         <v>175</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B37" s="26" t="s">
         <v>179</v>
       </c>
       <c r="C37" s="27" t="s">
         <v>178</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>180</v>
+      </c>
+      <c r="C59" t="s">
+        <v>181</v>
+      </c>
+      <c r="D59" t="s">
+        <v>182</v>
+      </c>
+      <c r="E59" t="s">
+        <v>183</v>
+      </c>
+      <c r="F59" t="s">
+        <v>184</v>
+      </c>
+      <c r="G59" t="s">
+        <v>185</v>
+      </c>
+      <c r="H59" t="s">
+        <v>186</v>
+      </c>
+      <c r="I59" t="s">
+        <v>187</v>
+      </c>
+      <c r="J59" t="s">
+        <v>190</v>
+      </c>
+      <c r="K59" t="s">
+        <v>188</v>
+      </c>
+      <c r="M59" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <v>37000</v>
+      </c>
+      <c r="C60">
+        <v>5000</v>
+      </c>
+      <c r="D60">
+        <v>8000</v>
+      </c>
+      <c r="E60">
+        <v>7000</v>
+      </c>
+      <c r="F60">
+        <v>5000</v>
+      </c>
+      <c r="J60">
+        <v>2100</v>
+      </c>
+      <c r="K60">
+        <v>39000</v>
+      </c>
+      <c r="M60">
+        <v>12760</v>
+      </c>
+      <c r="O60">
+        <f>B62-M60</f>
+        <v>90340</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B62">
+        <f>SUM(B60,C60,D60,E60,F60,G60,H60,I60,K60,J60)</f>
+        <v>103100</v>
       </c>
     </row>
   </sheetData>

--- a/装修预算.xlsx
+++ b/装修预算.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
@@ -15,7 +15,7 @@
     <sheet name="半包装修公司提供的辅材" sheetId="3" r:id="rId6"/>
     <sheet name="补充" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="154">
   <si>
     <t>房间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -647,43 +647,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>书柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>榻榻米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电脑桌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>橱柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烟机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灶具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>台面盆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马桶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>干湿分离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花洒</t>
+    <t>风管机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣柜橱柜烟机灶具</t>
+  </si>
+  <si>
+    <t>门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫浴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓷砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面板</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -691,75 +686,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>灯具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地砖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>墙砖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吊顶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灯具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地砖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>墙砖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卫浴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卧室门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨房门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厕所门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗面盆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>封窗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单价</t>
+    <t>基装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已交</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -767,100 +698,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>风管机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水电改造</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗帘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>墙纸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>墨西哥湾</t>
-  </si>
-  <si>
-    <t>咖</t>
-  </si>
-  <si>
-    <t>黄</t>
-  </si>
-  <si>
-    <t>童话镇</t>
-  </si>
-  <si>
-    <t>月牙泉</t>
-  </si>
-  <si>
-    <t>红咖</t>
-  </si>
-  <si>
-    <t>利兹蔷薇</t>
-  </si>
-  <si>
-    <t>衣柜橱柜烟机灶具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>封窗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卫浴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓷砖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吊顶</t>
+    <t>还差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门槛石、飘窗石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可支配12000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -937,30 +795,6 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0075C1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1053,11 +887,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1119,13 +952,12 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1590,7 +1422,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2381,329 +2213,158 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O62"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="B1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D1" t="s">
-        <v>166</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1">
+        <v>37000</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>139</v>
+      </c>
+      <c r="B2">
+        <v>6000</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>140</v>
+      </c>
+      <c r="B3">
+        <v>7000</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>141</v>
+      </c>
+      <c r="B4">
+        <v>6500</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>142</v>
+      </c>
+      <c r="B5">
+        <v>5000</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>158</v>
+        <v>143</v>
+      </c>
+      <c r="B6">
+        <v>7000</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>144</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7">
+        <v>7000</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>155</v>
+        <v>152</v>
+      </c>
+      <c r="C8" s="25"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9">
+        <v>3000</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B10">
-        <v>4499</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="C10" s="25"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>141</v>
+        <v>146</v>
+      </c>
+      <c r="B11">
+        <v>2100</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>147</v>
+      </c>
+      <c r="B12">
+        <v>37000</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>143</v>
+        <v>137</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>6500</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="B14">
+        <f>SUM(B1:B13)</f>
+        <v>107600</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="B16">
+        <v>32733</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>150</v>
       </c>
-      <c r="D17">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>154</v>
-      </c>
-      <c r="D26">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>163</v>
-      </c>
-      <c r="D28">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>168</v>
-      </c>
-      <c r="E30">
-        <f>SUM(D8,D17,D26)</f>
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>169</v>
-      </c>
-      <c r="D31">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>172</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="D34">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B35" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B36" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="C36" s="27" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B37" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
-        <v>180</v>
-      </c>
-      <c r="C59" t="s">
-        <v>181</v>
-      </c>
-      <c r="D59" t="s">
-        <v>182</v>
-      </c>
-      <c r="E59" t="s">
-        <v>183</v>
-      </c>
-      <c r="F59" t="s">
-        <v>184</v>
-      </c>
-      <c r="G59" t="s">
-        <v>185</v>
-      </c>
-      <c r="H59" t="s">
-        <v>186</v>
-      </c>
-      <c r="I59" t="s">
-        <v>187</v>
-      </c>
-      <c r="J59" t="s">
-        <v>190</v>
-      </c>
-      <c r="K59" t="s">
-        <v>188</v>
-      </c>
-      <c r="M59" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B60">
-        <v>37000</v>
-      </c>
-      <c r="C60">
-        <v>5000</v>
-      </c>
-      <c r="D60">
-        <v>8000</v>
-      </c>
-      <c r="E60">
-        <v>7000</v>
-      </c>
-      <c r="F60">
-        <v>5000</v>
-      </c>
-      <c r="J60">
-        <v>2100</v>
-      </c>
-      <c r="K60">
-        <v>39000</v>
-      </c>
-      <c r="M60">
-        <v>12760</v>
-      </c>
-      <c r="O60">
-        <f>B62-M60</f>
-        <v>90340</v>
-      </c>
-    </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B62">
-        <f>SUM(B60,C60,D60,E60,F60,G60,H60,I60,K60,J60)</f>
-        <v>103100</v>
+      <c r="B17">
+        <f>B14-B16</f>
+        <v>74867</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C7:C10"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C34" r:id="rId1" location="sub2" display="http://www.powerdekor.com.cn/powerDekor/findDesign.action?pTypeId=402880e85726b850015726c25e310004&amp;typePicture=uploadImgs/menuSecondImg/2016/10/9/1475984523330.jpg&amp;typename=%E8%89%B2%E5%BD%A9&amp;sign=4 - sub2"/>
-    <hyperlink ref="C35" r:id="rId2" location="sub2" display="http://www.powerdekor.com.cn/powerDekor/findDesign.action?pTypeId=402880e85726b850015726c25e310004&amp;typePicture=uploadImgs/menuSecondImg/2016/10/9/1475984523330.jpg&amp;typename=%E8%89%B2%E5%BD%A9&amp;sign=4 - sub2"/>
-    <hyperlink ref="C36" r:id="rId3" location="sub2" display="http://www.powerdekor.com.cn/powerDekor/findDesign.action?pTypeId=402880e85726b850015726c25e310004&amp;typePicture=uploadImgs/menuSecondImg/2016/10/9/1475984523330.jpg&amp;typename=%E8%89%B2%E5%BD%A9&amp;sign=4 - sub2"/>
-    <hyperlink ref="C37" r:id="rId4" location="sub2" display="http://www.powerdekor.com.cn/powerDekor/findDesign.action?pTypeId=402880e85726b850015726c25e310004&amp;typePicture=uploadImgs/menuSecondImg/2016/10/9/1475984523330.jpg&amp;typename=%E8%89%B2%E5%BD%A9&amp;sign=4 - sub2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/装修预算.xlsx
+++ b/装修预算.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="153">
   <si>
     <t>房间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -674,10 +674,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>瓷砖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>面板</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -706,11 +702,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>门槛石、飘窗石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可支配12000</t>
+    <t>瓷砖、门槛石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飘窗石</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1782,7 +1778,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -2216,7 +2212,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2232,13 +2228,19 @@
       <c r="B1">
         <v>37000</v>
       </c>
+      <c r="D1">
+        <v>12300</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>139</v>
       </c>
       <c r="B2">
-        <v>6000</v>
+        <v>8100</v>
+      </c>
+      <c r="D2">
+        <v>6500</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2246,7 +2248,7 @@
         <v>140</v>
       </c>
       <c r="B3">
-        <v>7000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2256,13 +2258,19 @@
       <c r="B4">
         <v>6500</v>
       </c>
+      <c r="D4">
+        <v>4000</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>142</v>
       </c>
       <c r="B5">
-        <v>5000</v>
+        <v>7700</v>
+      </c>
+      <c r="D5">
+        <v>7700</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2270,18 +2278,22 @@
         <v>143</v>
       </c>
       <c r="B6">
-        <v>7000</v>
+        <v>7300</v>
+      </c>
+      <c r="D6">
+        <v>3000</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>153</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="B7">
+        <v>3850</v>
+      </c>
+      <c r="C7" s="25"/>
       <c r="D7">
-        <v>7000</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2292,33 +2304,42 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>150</v>
+      </c>
+      <c r="B9">
+        <v>3000</v>
       </c>
       <c r="C9" s="25"/>
-      <c r="D9">
-        <v>3000</v>
-      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+      <c r="B10">
+        <v>1000</v>
       </c>
       <c r="C10" s="25"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11">
         <v>2100</v>
       </c>
+      <c r="D11">
+        <v>1000</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B12">
         <v>37000</v>
+      </c>
+      <c r="D12">
+        <v>18500</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2326,36 +2347,43 @@
         <v>137</v>
       </c>
       <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>6500</v>
+        <v>6000</v>
+      </c>
+      <c r="D13">
+        <v>6000</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B14">
         <f>SUM(B1:B13)</f>
-        <v>107600</v>
+        <v>125550</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B16">
-        <v>32733</v>
+        <v>56850</v>
+      </c>
+      <c r="C16">
+        <f>SUM(D1:D13)</f>
+        <v>62850</v>
+      </c>
+      <c r="D16">
+        <v>56850</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B17">
-        <f>B14-B16</f>
-        <v>74867</v>
+        <f>B14-C16</f>
+        <v>62700</v>
       </c>
     </row>
   </sheetData>
